--- a/NformTester/NformTester/keywordscripts/TST2798_ConfigurationOnDeviceMaintenanceWindow.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2798_ConfigurationOnDeviceMaintenanceWindow.xlsx
@@ -3740,14 +3740,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ABC GXT UPS"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3907,6 +3899,14 @@
   <si>
     <t>Sashimi</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4087,7 +4087,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4133,6 +4133,9 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4460,8 +4463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4473,7 +4476,7 @@
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
     <col min="10" max="10" width="41.625" customWidth="1"/>
     <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -4551,7 +4554,7 @@
         <v>800</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4645,7 +4648,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4682,7 +4685,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>797</v>
       </c>
@@ -4703,20 +4706,20 @@
       <c r="H8" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>825</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>827</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>813</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="N8" s="14"/>
     </row>
@@ -4731,7 +4734,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4751,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -4841,7 +4844,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>826</v>
+        <v>867</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4"/>
@@ -4897,7 +4900,7 @@
         <v>7</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I15" s="4" t="b">
         <v>1</v>
@@ -4927,7 +4930,7 @@
         <v>7</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I16" s="4" t="b">
         <v>0</v>
@@ -4983,7 +4986,7 @@
         <v>7</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I18" s="4" t="b">
         <v>0</v>
@@ -5013,7 +5016,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I19" s="4" t="b">
         <v>0</v>
@@ -5043,7 +5046,7 @@
         <v>7</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I20" s="4" t="b">
         <v>0</v>
@@ -5071,7 +5074,7 @@
         <v>7</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I21" s="4" t="b">
         <v>0</v>
@@ -5135,7 +5138,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="4"/>
@@ -5213,7 +5216,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>826</v>
+        <v>867</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
@@ -5263,7 +5266,7 @@
         <v>7</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I29" s="4" t="b">
         <v>0</v>
@@ -5291,7 +5294,7 @@
         <v>7</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I30" s="4" t="b">
         <v>1</v>
@@ -5319,7 +5322,7 @@
         <v>7</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I31" s="4" t="b">
         <v>0</v>
@@ -5359,7 +5362,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -5389,7 +5392,7 @@
         <v>7</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I34" s="4" t="b">
         <v>1</v>
@@ -5417,7 +5420,7 @@
         <v>7</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I35" s="4" t="b">
         <v>1</v>
@@ -5445,7 +5448,7 @@
         <v>7</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I36" s="4" t="b">
         <v>1</v>
@@ -5473,7 +5476,7 @@
         <v>7</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I37" s="4" t="b">
         <v>1</v>
@@ -5513,7 +5516,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="4"/>
@@ -5531,7 +5534,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="4"/>
@@ -5561,7 +5564,7 @@
         <v>3</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -5575,10 +5578,10 @@
         <v>41</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F42" s="4">
         <v>2</v>
@@ -5609,13 +5612,13 @@
         <v>7</v>
       </c>
       <c r="H43" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="J43" s="18" t="s">
         <v>844</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>846</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -5627,10 +5630,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F44" s="4">
         <v>2</v>
@@ -5649,7 +5652,7 @@
         <v>44</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="4"/>
@@ -5667,7 +5670,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>616</v>
@@ -5679,7 +5682,7 @@
         <v>3</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="4"/>
@@ -5693,7 +5696,7 @@
         <v>46</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>616</v>
@@ -5705,13 +5708,13 @@
         <v>7</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="K47" s="19"/>
       <c r="L47" s="4"/>
@@ -5723,7 +5726,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>616</v>
@@ -5735,7 +5738,7 @@
         <v>3</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="4"/>
@@ -5749,7 +5752,7 @@
         <v>48</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>616</v>
@@ -5761,13 +5764,13 @@
         <v>7</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J49" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -5779,7 +5782,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -5797,7 +5800,7 @@
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>616</v>
@@ -5809,7 +5812,7 @@
         <v>7</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I51" s="4" t="b">
         <v>0</v>
@@ -5825,7 +5828,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>616</v>
@@ -5837,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="19"/>
@@ -5851,7 +5854,7 @@
         <v>52</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>616</v>
@@ -5875,7 +5878,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>616</v>
@@ -5899,7 +5902,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>616</v>
@@ -5911,13 +5914,13 @@
         <v>7</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J55" s="20" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
@@ -5929,7 +5932,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>616</v>
@@ -5941,13 +5944,13 @@
         <v>7</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -5959,7 +5962,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>616</v>
@@ -5971,7 +5974,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="19"/>
@@ -5985,7 +5988,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>616</v>
@@ -5997,7 +6000,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="19"/>
@@ -6011,10 +6014,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F59" s="4">
         <v>2</v>
@@ -6033,7 +6036,7 @@
         <v>59</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>616</v>
@@ -6045,10 +6048,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J60" s="9">
         <v>1440</v>
@@ -6063,7 +6066,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -6081,7 +6084,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>616</v>
@@ -6093,7 +6096,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="4"/>
@@ -6107,10 +6110,10 @@
         <v>62</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F63" s="4">
         <v>2</v>
@@ -6129,7 +6132,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>616</v>
@@ -6141,13 +6144,13 @@
         <v>7</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
@@ -6159,7 +6162,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>616</v>
@@ -6183,7 +6186,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>607</v>
@@ -6207,7 +6210,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -6273,10 +6276,10 @@
         <v>69</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>608</v>
@@ -6285,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -6299,10 +6302,10 @@
         <v>70</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>213</v>
@@ -6323,7 +6326,7 @@
         <v>71</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>615</v>
@@ -6347,10 +6350,10 @@
         <v>72</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>100</v>
@@ -29164,12 +29167,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST2798_ConfigurationOnDeviceMaintenanceWindow.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2798_ConfigurationOnDeviceMaintenanceWindow.xlsx
@@ -1241,7 +1241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7733" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7747" uniqueCount="871">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3901,11 +3901,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_0_NAME$</t>
+    <t>Running Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMPdevice_0$</t>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4463,14 +4471,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="22.625" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="35.25" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
@@ -4642,7 +4650,7 @@
         <v>805</v>
       </c>
       <c r="B6" s="8">
-        <v>41106</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4687,9 +4695,9 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>867</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
@@ -4710,7 +4718,7 @@
         <v>868</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>825</v>
@@ -4725,11 +4733,9 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>808</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
@@ -4748,8 +4754,12 @@
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" ht="15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>808</v>
+      </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
@@ -4768,10 +4778,8 @@
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4">
         <v>10</v>
       </c>
@@ -4797,7 +4805,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="4">
@@ -4825,7 +4833,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="4">
@@ -4844,7 +4852,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4"/>
@@ -4855,7 +4863,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="4">
@@ -4882,7 +4890,9 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>812</v>
+      </c>
       <c r="B15" s="13"/>
       <c r="C15" s="4">
         <v>14</v>
@@ -4902,10 +4912,12 @@
       <c r="H15" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -4932,10 +4944,12 @@
       <c r="H16" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J16" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -4988,10 +5002,12 @@
       <c r="H18" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J18" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J18" s="9"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
@@ -5018,18 +5034,20 @@
       <c r="H19" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J19" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J19" s="9"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
@@ -5048,16 +5066,20 @@
       <c r="H20" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J20" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J20" s="9"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
@@ -5076,10 +5098,12 @@
       <c r="H21" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J21" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J21" s="9"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -5216,7 +5240,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="4"/>
@@ -5268,10 +5292,12 @@
       <c r="H29" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="I29" s="4" t="b">
+      <c r="I29" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J29" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
@@ -5296,10 +5322,12 @@
       <c r="H30" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="I30" s="4" t="b">
+      <c r="I30" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -5324,10 +5352,12 @@
       <c r="H31" s="9" t="s">
         <v>834</v>
       </c>
-      <c r="I31" s="4" t="b">
+      <c r="I31" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J31" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -5394,10 +5424,12 @@
       <c r="H34" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I34" s="4" t="b">
+      <c r="I34" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J34" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J34" s="9"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
@@ -5422,10 +5454,12 @@
       <c r="H35" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I35" s="4" t="b">
+      <c r="I35" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J35" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J35" s="9"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -5450,10 +5484,12 @@
       <c r="H36" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I36" s="4" t="b">
+      <c r="I36" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J36" s="9"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -5478,10 +5514,12 @@
       <c r="H37" s="9" t="s">
         <v>835</v>
       </c>
-      <c r="I37" s="4" t="b">
+      <c r="I37" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="J37" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J37" s="9"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST2798_ConfigurationOnDeviceMaintenanceWindow.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST2798_ConfigurationOnDeviceMaintenanceWindow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -3925,14 +3925,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3940,7 +3940,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3983,14 +3983,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4146,9 +4146,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -4185,7 +4185,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4472,24 +4472,24 @@
   <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="35.25" customWidth="1"/>
-    <col min="6" max="6" width="25.875" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="41.625" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>789</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>798</v>
       </c>
@@ -4621,7 +4621,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:14" ht="15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>804</v>
       </c>
@@ -4645,7 +4645,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:14" ht="15">
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>805</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:14" ht="15">
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>806</v>
       </c>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="1:14" ht="15">
+    <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
         <v>797</v>
       </c>
@@ -4753,7 +4753,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" ht="15">
+    <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
         <v>807</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="M23" s="4"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:14" ht="15">
+    <row r="24" spans="1:14">
       <c r="C24" s="4">
         <v>23</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="M32" s="4"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="3:14" ht="15">
+    <row r="33" spans="3:14">
       <c r="C33" s="4">
         <v>32</v>
       </c>
@@ -5549,7 +5549,7 @@
       <c r="M38" s="4"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="3:14" ht="15">
+    <row r="39" spans="3:14">
       <c r="C39" s="4">
         <v>38</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="M39" s="4"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="3:14" ht="15">
+    <row r="40" spans="3:14">
       <c r="C40" s="4">
         <v>39</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="M44" s="4"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="3:14" ht="15">
+    <row r="45" spans="3:14">
       <c r="C45" s="4">
         <v>44</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="3:14" ht="15">
+    <row r="50" spans="3:14">
       <c r="C50" s="4">
         <v>49</v>
       </c>
@@ -6099,7 +6099,7 @@
       <c r="M60" s="4"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="3:14" ht="15">
+    <row r="61" spans="3:14">
       <c r="C61" s="4">
         <v>60</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="M66" s="4"/>
       <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="3:14" ht="15">
+    <row r="67" spans="3:14">
       <c r="C67" s="4">
         <v>66</v>
       </c>
@@ -6335,7 +6335,7 @@
       <c r="M70" s="4"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="3:14" ht="14.25">
+    <row r="71" spans="3:14" ht="16.5">
       <c r="C71" s="4">
         <v>70</v>
       </c>
@@ -6481,7 +6481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:83">
       <c r="A1" t="s">
@@ -10342,7 +10342,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1053">
       <c r="A1" t="s">
@@ -29201,7 +29201,7 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
